--- a/app/data/Summary_Data.xlsx
+++ b/app/data/Summary_Data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$I$25</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve">William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trentham Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bro’s so cracked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the start of very honest golf. No Gimme’s, no Mulligans no breakfast balls or kick outs Wasn’t really trying here, too pissed off lol</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,7 +460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="81.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="113.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,7 +1116,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>45984</v>
+        <v>45979</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -1113,25 +1125,26 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>48</v>
+        <f aca="false">5+5+4+5+8+5+6+5+7</f>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">SUM(F24-G24)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>46002</v>
+        <v>45984</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -1140,23 +1153,20 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">SUM(F25-G25)</f>
-        <v>9</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,41 +1186,44 @@
         <v>13</v>
       </c>
       <c r="F26" s="1" t="n">
-        <f aca="false">G26+H26</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>15</v>
+        <f aca="false">SUM(F26-G26)</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>46039</v>
+        <v>46002</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="1" t="n">
-        <f aca="false">4+5+4+8+4+5+5+4+4</f>
-        <v>43</v>
+        <f aca="false">G27+H27</f>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1230,14 +1243,14 @@
         <v>13</v>
       </c>
       <c r="F28" s="1" t="n">
-        <f aca="false">6+6+8+5+6+7+6+5+5</f>
-        <v>54</v>
+        <f aca="false">4+5+4+8+4+5+5+4+4</f>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>29</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1257,48 +1270,216 @@
         <v>13</v>
       </c>
       <c r="F29" s="1" t="n">
+        <f aca="false">6+6+8+5+6+7+6+5+5</f>
+        <v>54</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>46039</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <f aca="false">8+6+6+6+6+7+5+5+5</f>
         <v>54</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H30" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <v>45979</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <f aca="false">5+5+4+5+8+5+6+5+7</f>
-        <v>50</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">SUM(F30-G30)</f>
-        <v>13</v>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">SUM(F31-G31)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">SUM(F32-G32)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">SUM(F33-G33)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">SUM(F34-G34)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">SUM(F35-G35)</f>
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">SUM(5+7+4+4+5+4+6+8+5+5+7+6+5+7+6+6+5+6)</f>
+        <v>101</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">SUM(F36-G36)</f>
+        <v>30</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I25">
-    <sortState ref="A2:I25">
-      <sortCondition ref="A2:A25" customList=""/>
+  <autoFilter ref="A1:I35">
+    <sortState ref="A2:I35">
+      <sortCondition ref="A2:A35" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/Summary_Data.xlsx
+++ b/app/data/Summary_Data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$I$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="40">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -91,21 +91,15 @@
     <t xml:space="preserve">Is this my best score yet? - (Technically the back 9 of the 18 on 4/10/2025 was better +13)</t>
   </si>
   <si>
+    <t xml:space="preserve">Is this my best score from 18? Chips from rough needed work + approach pitches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad from Hayden, beats his last one</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masterton Golf Course</t>
   </si>
   <si>
-    <t xml:space="preserve">Practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only played 8, adjusted score and par for course to account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is this my best score from 18? Chips from rough needed work + approach pitches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not bad from Hayden, beats his last one</t>
-  </si>
-  <si>
     <t xml:space="preserve">I played better at Mahunga, first time playing Masterton back 9, not bad. </t>
   </si>
   <si>
@@ -131,6 +125,24 @@
   </si>
   <si>
     <t xml:space="preserve">This is the start of very honest golf. No Gimme’s, no Mulligans no breakfast balls or kick outs Wasn’t really trying here, too pissed off lol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had like 3 pars but messed it up later in the round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesting one, no blow-ups, but couldn’t find many pars, or bogies, was mostly a diet of doubles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayden’s best round thus far, excellent play from him</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waimarie Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great playing with Fletcher! – First ever South Island course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure about this score? I feel like I would have remembered if I had my lowest?</t>
   </si>
 </sst>
 </file>
@@ -448,10 +460,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,33 +871,32 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>45950</v>
+        <v>45955</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="n">
-        <f aca="false">SUM(6+6+5+8+7+5+6+6)</f>
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="n">
         <f aca="false">SUM(F15-G15)</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
@@ -903,28 +916,28 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>72</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">SUM(F16-G16)</f>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -933,17 +946,17 @@
         <v>13</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">SUM(F17-G17)</f>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,10 +964,10 @@
         <v>45956</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
@@ -963,17 +976,14 @@
         <v>13</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">SUM(F18-G18)</f>
-        <v>44</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,83 +991,83 @@
         <v>45956</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">SUM(F19-G19)</f>
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>45956</v>
+      <c r="A20" s="4" t="n">
+        <v>45968</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">SUM(F20-G20)</f>
-        <v>46</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>45968</v>
+        <v>45977</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="n">
         <f aca="false">SUM(F21-G21)</f>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
@@ -1077,46 +1087,47 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>72</v>
       </c>
       <c r="H22" s="1" t="n">
         <f aca="false">SUM(F22-G22)</f>
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>122</v>
+        <f aca="false">5+5+4+5+8+5+6+5+7</f>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">SUM(F23-G23)</f>
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>45979</v>
+        <v>45984</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -1125,26 +1136,25 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1" t="n">
-        <f aca="false">5+5+4+5+8+5+6+5+7</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">SUM(F24-G24)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>45984</v>
+        <v>46002</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -1153,20 +1163,23 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">SUM(F25-G25)</f>
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,44 +1199,41 @@
         <v>13</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>46</v>
+        <f aca="false">G26+H26</f>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="n">
-        <f aca="false">SUM(F26-G26)</f>
-        <v>9</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>46002</v>
+        <v>46039</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="1" t="n">
-        <f aca="false">G27+H27</f>
-        <v>52</v>
+        <f aca="false">4+5+4+8+4+5+5+4+4</f>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1243,14 +1253,14 @@
         <v>13</v>
       </c>
       <c r="F28" s="1" t="n">
-        <f aca="false">4+5+4+8+4+5+5+4+4</f>
-        <v>43</v>
+        <f aca="false">6+6+8+5+6+7+6+5+5</f>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>29</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1270,41 +1280,41 @@
         <v>13</v>
       </c>
       <c r="F29" s="1" t="n">
-        <f aca="false">6+6+8+5+6+7+6+5+5</f>
+        <f aca="false">8+6+6+6+6+7+5+5+5</f>
         <v>54</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>29</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>46039</v>
+        <v>46046</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="1" t="n">
-        <f aca="false">8+6+6+6+6+7+5+5+5</f>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>18</v>
+        <f aca="false">SUM(F30-G30)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1322,10 @@
         <v>46046</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>17</v>
@@ -1324,14 +1334,14 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H31" s="1" t="n">
         <f aca="false">SUM(F31-G31)</f>
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,10 +1349,10 @@
         <v>46046</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -1351,14 +1361,14 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H32" s="1" t="n">
         <f aca="false">SUM(F32-G32)</f>
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,10 +1376,10 @@
         <v>46046</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -1378,14 +1388,14 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H33" s="1" t="n">
         <f aca="false">SUM(F33-G33)</f>
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1403,7 @@
         <v>46046</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
@@ -1405,25 +1415,28 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H34" s="1" t="n">
         <f aca="false">SUM(F34-G34)</f>
-        <v>76</v>
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>46046</v>
+        <v>46053</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
@@ -1432,54 +1445,207 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>89</v>
+        <f aca="false">SUM(5+7+4+4+5+4+6+8+5+5+7+6+5+7+6+6+5+6)</f>
+        <v>101</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H35" s="1" t="n">
         <f aca="false">SUM(F35-G35)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>46053</v>
+        <v>46058</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <f aca="false">SUM(5+7+4+4+5+4+6+8+5+5+7+6+5+7+6+6+5+6)</f>
-        <v>101</v>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">SUM(37+13)</f>
+        <v>50</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">SUM(F36-G36)</f>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <f aca="false">SUM(36+15+35+15)</f>
+        <v>101</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">SUM(F37-G37)</f>
+        <v>30</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="false">SUM(16+36+35+15)</f>
+        <v>102</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">SUM(F38-G38)</f>
+        <v>31</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <f aca="false">SUM(5+5+7+6+5+7+6+4+8)</f>
+        <v>53</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">SUM(F39-G39)</f>
+        <v>17</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">SUM(F40-G40)</f>
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">SUM(F41-G41)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I35">
-    <sortState ref="A2:I35">
-      <sortCondition ref="A2:A35" customList=""/>
+  <autoFilter ref="A1:I34">
+    <sortState ref="A2:I34">
+      <sortCondition ref="A2:A34" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/Summary_Data.xlsx
+++ b/app/data/Summary_Data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$I$34</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -109,9 +109,18 @@
     <t xml:space="preserve">Was great having Olivia out</t>
   </si>
   <si>
+    <t xml:space="preserve">Waimarie Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great playing with Fletcher! – First ever South Island course</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tidy Round!</t>
   </si>
   <si>
+    <t xml:space="preserve">Not sure about this score? I feel like I would have remembered if I had my lowest?</t>
+  </si>
+  <si>
     <t xml:space="preserve">William</t>
   </si>
   <si>
@@ -136,13 +145,10 @@
     <t xml:space="preserve">Hayden’s best round thus far, excellent play from him</t>
   </si>
   <si>
-    <t xml:space="preserve">Waimarie Golf Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great playing with Fletcher! – First ever South Island course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not sure about this score? I feel like I would have remembered if I had my lowest?</t>
+    <t xml:space="preserve">Kapiti Golf Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not my greatest round haha. Great to get Kat out!</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,32 +1160,33 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>46002</v>
+        <v>45994</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>46</v>
+        <f aca="false">SUM(5+5+7+6+5+7+6+4+8)</f>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">SUM(F25-G25)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,176 +1206,182 @@
         <v>13</v>
       </c>
       <c r="F26" s="1" t="n">
-        <f aca="false">G26+H26</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>15</v>
+        <f aca="false">SUM(F26-G26)</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <f aca="false">G27+H27</f>
+        <v>52</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">SUM(F28-G28)</f>
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>46016</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">SUM(F29-G29)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
         <v>46039</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <f aca="false">4+5+4+8+4+5+5+4+4</f>
         <v>43</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="H30" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
         <v>46039</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="n">
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <f aca="false">6+6+8+5+6+7+6+5+5</f>
         <v>54</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="H31" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
         <v>46039</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="n">
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="n">
         <f aca="false">8+6+6+6+6+7+5+5+5</f>
         <v>54</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G32" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H32" s="1" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <v>46046</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <f aca="false">SUM(F30-G30)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <v>46046</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <f aca="false">SUM(F31-G31)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <v>46046</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <f aca="false">SUM(F32-G32)</f>
-        <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,10 +1389,10 @@
         <v>46046</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -1388,14 +1401,14 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H33" s="1" t="n">
         <f aca="false">SUM(F33-G33)</f>
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,10 +1416,10 @@
         <v>46046</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -1415,237 +1428,260 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>71</v>
       </c>
       <c r="H34" s="1" t="n">
         <f aca="false">SUM(F34-G34)</f>
-        <v>18</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">SUM(F35-G35)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">SUM(F36-G36)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">SUM(F37-G37)</f>
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
         <v>46053</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <f aca="false">SUM(5+7+4+4+5+4+6+8+5+5+7+6+5+7+6+6+5+6)</f>
         <v>101</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G38" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">SUM(F35-G35)</f>
+      <c r="H38" s="1" t="n">
+        <f aca="false">SUM(F38-G38)</f>
         <v>30</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="I38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
         <v>46058</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="1" t="n">
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="n">
         <f aca="false">SUM(37+13)</f>
         <v>50</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="H36" s="1" t="n">
-        <f aca="false">SUM(F36-G36)</f>
-        <v>13</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="H39" s="1" t="n">
+        <f aca="false">SUM(F39-G39)</f>
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
         <v>46060</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="n">
         <f aca="false">SUM(36+15+35+15)</f>
         <v>101</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G40" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="H37" s="1" t="n">
-        <f aca="false">SUM(F37-G37)</f>
+      <c r="H40" s="1" t="n">
+        <f aca="false">SUM(F40-G40)</f>
         <v>30</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="I40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
         <v>46060</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="n">
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="n">
         <f aca="false">SUM(16+36+35+15)</f>
         <v>102</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G41" s="1" t="n">
         <v>71</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <f aca="false">SUM(F38-G38)</f>
-        <v>31</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>45994</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <f aca="false">SUM(5+5+7+6+5+7+6+4+8)</f>
-        <v>53</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <f aca="false">SUM(F39-G39)</f>
-        <v>17</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <f aca="false">SUM(F40-G40)</f>
-        <v>15</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>46016</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>129</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>72</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">SUM(F41-G41)</f>
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>46068</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">SUM(F42-G42)</f>
+        <v>13</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I34">
-    <sortState ref="A2:I34">
-      <sortCondition ref="A2:A34" customList=""/>
+  <autoFilter ref="A1:I42">
+    <sortState ref="A2:I42">
+      <sortCondition ref="A2:A42" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
